--- a/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
+++ b/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
@@ -1,33 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21412"/>
-  <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_5C934494373A53AF624CB874DEC5D5D23C4CA811" xr6:coauthVersionLast="42" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\SRPbVT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26775" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26775" windowHeight="10710"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="SRPbVT" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>SRPbVT Separately Regulated Pollutants by Vehicle Type</t>
   </si>
@@ -38,91 +36,139 @@
     <t>On-Road Vehicles</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t>U.S. EPA</t>
   </si>
   <si>
+    <t>https://www.epa.gov/criteria-air-pollutants/naaqs-table</t>
+  </si>
+  <si>
+    <t>NAAQS Table</t>
+  </si>
+  <si>
+    <t>Ships</t>
+  </si>
+  <si>
     <t>undated (current as of 2018)</t>
   </si>
   <si>
-    <t>NAAQS Table</t>
-  </si>
-  <si>
-    <t>https://www.epa.gov/criteria-air-pollutants/naaqs-table</t>
-  </si>
-  <si>
     <t>Aircraft</t>
   </si>
   <si>
+    <t>https://www.epa.gov/regulations-emissions-vehicles-and-engines/regulations-emissions-aircraft</t>
+  </si>
+  <si>
     <t>Regulations for Emissions from Aircraft</t>
   </si>
   <si>
-    <t>https://www.epa.gov/regulations-emissions-vehicles-and-engines/regulations-emissions-aircraft</t>
-  </si>
-  <si>
     <t>Rail</t>
   </si>
   <si>
+    <t>Regulations for Emissions from Locomotives</t>
+  </si>
+  <si>
+    <t>Although VOCs are not specifically named as a criteria pollutant, ozone is names, and ozone is formed from</t>
+  </si>
+  <si>
+    <t>so we consider VOCs to be a separately-regulated pollutant whenever NOx/NO2 is separately-regulated.</t>
+  </si>
+  <si>
+    <t>VOCs</t>
+  </si>
+  <si>
+    <t>BC, OC</t>
+  </si>
+  <si>
+    <t>As these are subsets of PM10 and sometimes PM2.5, we consider them to be separately-regulated whenever</t>
+  </si>
+  <si>
+    <t>PM is separately-regulated.</t>
+  </si>
+  <si>
+    <t>CO2 is never considered a separately-regulated pollutant.  This variable's name refers to pollutants that are</t>
+  </si>
+  <si>
+    <t>regulated "separately" from CO2 (irrespective of whether a country uses CO2 or fuel economy standards).</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>VOC</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>PM10</t>
+  </si>
+  <si>
+    <t>PM2.5</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>N2O</t>
+  </si>
+  <si>
+    <t>F-gases</t>
+  </si>
+  <si>
+    <t>F-gases are handled in the industry sector, not the transportation sector (even if the emissions come from vehicle</t>
+  </si>
+  <si>
+    <t>air conditioning systems), so the setting in this variable does not have any effect.  We set it to zero, so that</t>
+  </si>
+  <si>
+    <t>if F-gas emissions are added to the transportation sector in the future, they will not be influenced by fuel</t>
+  </si>
+  <si>
+    <t>economy.</t>
+  </si>
+  <si>
+    <t>NOx</t>
+  </si>
+  <si>
+    <t>SOx</t>
+  </si>
+  <si>
+    <t>the reaction of NOx/NO2 and VOCs in the atmosphere.  In practice, the emissions of NOx/NO2 + VOCs are regulated,</t>
+  </si>
+  <si>
     <t>U.S. EPA / Electronic Code of Federal Regulations</t>
   </si>
   <si>
-    <t>Regulations for Emissions from Locomotives</t>
+    <t>Note that in some sources, VOCs are called HCs (hydrocarbons) or NMHCs (non-methane hydrocarbons).</t>
+  </si>
+  <si>
+    <t>§1033.101 Exhaust emission standards, Table 1</t>
   </si>
   <si>
     <t>https://www.ecfr.gov/cgi-bin/text-idx?SID=159ba6f126272ea1995c71a43b7af309&amp;mc=true&amp;node=pt40.36.1033&amp;rgn=div5#se40.36.1033_1101</t>
   </si>
   <si>
-    <t>§1033.101 Exhaust emission standards, Table 1</t>
-  </si>
-  <si>
-    <t>Ships</t>
+    <t>https://nepis.epa.gov/Exe/ZyPDF.cgi/P1005ZAD.PDF?Dockey=P1005ZAD.PDF</t>
   </si>
   <si>
     <t>EPA Finalizes More Stringent Standards for Control of Emissions from New Marine Compression-Ignition Engines at or Above 30 Liters per Cylinder</t>
   </si>
   <si>
-    <t>https://nepis.epa.gov/Exe/ZyPDF.cgi/P1005ZAD.PDF?Dockey=P1005ZAD.PDF</t>
-  </si>
-  <si>
     <t>Page 3, the three paragraphs under the "New Clean Air Act Standards for Category 3 Engines" subheader</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>CO2 is never considered a separately-regulated pollutant.  This variable's name refers to pollutants that are</t>
-  </si>
-  <si>
-    <t>regulated "separately" from CO2 (irrespective of whether a country uses CO2 or fuel economy standards).</t>
-  </si>
-  <si>
-    <t>VOCs</t>
-  </si>
-  <si>
-    <t>Although VOCs are not specifically named as a criteria pollutant, ozone is names, and ozone is formed from</t>
-  </si>
-  <si>
-    <t>the reaction of NOx/NO2 and VOCs in the atmosphere.  In practice, the emissions of NOx/NO2 + VOCs are regulated,</t>
-  </si>
-  <si>
-    <t>so we consider VOCs to be a separately-regulated pollutant whenever NOx/NO2 is separately-regulated.</t>
-  </si>
-  <si>
-    <t>Note that in some sources, VOCs are called HCs (hydrocarbons) or NMHCs (non-methane hydrocarbons).</t>
-  </si>
-  <si>
-    <t>BC, OC</t>
-  </si>
-  <si>
-    <t>As these are subsets of PM10 and sometimes PM2.5, we consider them to be separately-regulated whenever</t>
-  </si>
-  <si>
-    <t>PM is separately-regulated.</t>
-  </si>
-  <si>
-    <t>SOx</t>
+    <t>However, a limit on sulfur in fuel correlates with the amount of fuel burned, so lacking other control technologies,</t>
+  </si>
+  <si>
+    <t>"separate regulations" for purposes of this variable.</t>
   </si>
   <si>
     <t>Where SOx is not regulated directly, it may still be regulated via the allowable sulfur content of diesel fuels.</t>
@@ -134,57 +180,9 @@
     <t>(See https://www.epa.gov/diesel-fuel-standards/diesel-fuel-standards-and-rulemakings )</t>
   </si>
   <si>
-    <t>However, a limit on sulfur in fuel correlates with the amount of fuel burned, so lacking other control technologies,</t>
-  </si>
-  <si>
     <t>SOx emissions would scale with fuel use.  Thus, limits on sulfur in hydrocarbon fuels are not considered to be</t>
   </si>
   <si>
-    <t>"separate regulations" for purposes of this variable.</t>
-  </si>
-  <si>
-    <t>F-gases</t>
-  </si>
-  <si>
-    <t>F-gases are handled in the industry sector, not the transportation sector (even if the emissions come from vehicle</t>
-  </si>
-  <si>
-    <t>air conditioning systems), so the setting in this variable does not have any effect.  We set it to zero, so that</t>
-  </si>
-  <si>
-    <t>if F-gas emissions are added to the transportation sector in the future, they will not be influenced by fuel</t>
-  </si>
-  <si>
-    <t>economy.</t>
-  </si>
-  <si>
-    <t>VOC</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>NOx</t>
-  </si>
-  <si>
-    <t>PM10</t>
-  </si>
-  <si>
-    <t>PM2.5</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>OC</t>
-  </si>
-  <si>
-    <t>CH4</t>
-  </si>
-  <si>
-    <t>N2O</t>
-  </si>
-  <si>
     <t>LDVs</t>
   </si>
   <si>
@@ -201,13 +199,16 @@
   </si>
   <si>
     <t>motorbikes</t>
+  </si>
+  <si>
+    <t>(Boolean)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,22 +537,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="101.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -559,229 +560,229 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>2009</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="B26" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="B27" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -791,58 +792,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -883,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -924,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -965,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1006,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1047,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -1094,24 +1100,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1345,14 +1333,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B29138-2023-4DEF-9F4D-3D82D8EE2211}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{501A1D5E-E6D9-4982-A1CB-AE24D8240A68}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28FD6EDE-FE33-49BF-BD4E-38711FC381A0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E30F486-1080-4C60-A5FF-51577973276E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2CC5EA6-D69D-4BE6-B139-A014758948B8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F04457EB-C290-4494-9FC6-EFE7D1BBE071}"/>
 </file>